--- a/database.xlsx
+++ b/database.xlsx
@@ -1,34 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zzz_Proyectos\00001_BANCA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="accounts" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="accounts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>dni</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +74,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -386,49 +354,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="13.5703125" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>dni</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>72193101B</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>banco1234</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -437,49 +383,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>account</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>money</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>owner</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>9f1a73d25691e6d379483ee303331251</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>72193101B</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>dni</t>
   </si>
@@ -31,6 +31,9 @@
     <t>admin</t>
   </si>
   <si>
+    <t>66admin66</t>
+  </si>
+  <si>
     <t>account</t>
   </si>
   <si>
@@ -38,6 +41,9 @@
   </si>
   <si>
     <t>owner</t>
+  </si>
+  <si>
+    <t>0cc447ac8b9791feaddb339c7a63256a</t>
   </si>
 </sst>
 </file>
@@ -355,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,6 +383,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -384,23 +401,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
